--- a/INTLINE/data/142/STANOR/03013 Consumer Price Index by Divisions.xlsx
+++ b/INTLINE/data/142/STANOR/03013 Consumer Price Index by Divisions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="555">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="558">
   <x:si>
     <x:t>03013: Consumer Price Index, by consumption group, contents and month</x:t>
   </x:si>
@@ -1571,6 +1571,15 @@
   </x:si>
   <x:si>
     <x:t>2022M02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022M03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022M04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022M05</x:t>
   </x:si>
   <x:si>
     <x:t>01 Food and non-alcoholic beverages</x:t>
@@ -1625,7 +1634,7 @@
     <x:t>Consumer Price Index (2015=100):</x:t>
   </x:si>
   <x:si>
-    <x:t>20220310 08:00</x:t>
+    <x:t>20220610 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -2072,21 +2081,21 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:SZ59"/>
+  <x:dimension ref="A1:TC59"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="520" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="1" max="523" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:520">
+    <x:row r="1" spans="1:523">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:520">
+    <x:row r="3" spans="1:523">
       <x:c r="C3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -3641,13 +3650,22 @@
       <x:c r="SZ3" s="2" t="s">
         <x:v>518</x:v>
       </x:c>
+      <x:c r="TA3" s="2" t="s">
+        <x:v>519</x:v>
+      </x:c>
+      <x:c r="TB3" s="2" t="s">
+        <x:v>520</x:v>
+      </x:c>
+      <x:c r="TC3" s="2" t="s">
+        <x:v>521</x:v>
+      </x:c>
     </x:row>
-    <x:row r="4" spans="1:520">
+    <x:row r="4" spans="1:523">
       <x:c r="A4" s="2" t="s">
-        <x:v>519</x:v>
+        <x:v>522</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>520</x:v>
+        <x:v>523</x:v>
       </x:c>
       <x:c r="C4" s="3" t="n">
         <x:v>27</x:v>
@@ -5203,13 +5221,22 @@
       <x:c r="SZ4" s="3" t="n">
         <x:v>110.8</x:v>
       </x:c>
+      <x:c r="TA4" s="3" t="n">
+        <x:v>109.2</x:v>
+      </x:c>
+      <x:c r="TB4" s="3" t="n">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="TC4" s="3" t="n">
+        <x:v>110.4</x:v>
+      </x:c>
     </x:row>
-    <x:row r="5" spans="1:520">
+    <x:row r="5" spans="1:523">
       <x:c r="A5" s="2" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>520</x:v>
+        <x:v>523</x:v>
       </x:c>
       <x:c r="C5" s="3" t="n">
         <x:v>12.3</x:v>
@@ -6765,13 +6792,22 @@
       <x:c r="SZ5" s="3" t="n">
         <x:v>114.7</x:v>
       </x:c>
+      <x:c r="TA5" s="3" t="n">
+        <x:v>114.6</x:v>
+      </x:c>
+      <x:c r="TB5" s="3" t="n">
+        <x:v>114.5</x:v>
+      </x:c>
+      <x:c r="TC5" s="3" t="n">
+        <x:v>114.7</x:v>
+      </x:c>
     </x:row>
-    <x:row r="6" spans="1:520">
+    <x:row r="6" spans="1:523">
       <x:c r="A6" s="2" t="s">
-        <x:v>522</x:v>
+        <x:v>525</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>520</x:v>
+        <x:v>523</x:v>
       </x:c>
       <x:c r="C6" s="3" t="n">
         <x:v>81.9</x:v>
@@ -8327,13 +8363,22 @@
       <x:c r="SZ6" s="3" t="n">
         <x:v>94.9</x:v>
       </x:c>
+      <x:c r="TA6" s="3" t="n">
+        <x:v>98.8</x:v>
+      </x:c>
+      <x:c r="TB6" s="3" t="n">
+        <x:v>100.6</x:v>
+      </x:c>
+      <x:c r="TC6" s="3" t="n">
+        <x:v>101.8</x:v>
+      </x:c>
     </x:row>
-    <x:row r="7" spans="1:520">
+    <x:row r="7" spans="1:523">
       <x:c r="A7" s="2" t="s">
+        <x:v>526</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
         <x:v>523</x:v>
-      </x:c>
-      <x:c r="B7" s="2" t="s">
-        <x:v>520</x:v>
       </x:c>
       <x:c r="C7" s="3" t="n">
         <x:v>19.5</x:v>
@@ -9889,13 +9934,22 @@
       <x:c r="SZ7" s="3" t="n">
         <x:v>126.4</x:v>
       </x:c>
+      <x:c r="TA7" s="3" t="n">
+        <x:v>126.9</x:v>
+      </x:c>
+      <x:c r="TB7" s="3" t="n">
+        <x:v>129.5</x:v>
+      </x:c>
+      <x:c r="TC7" s="3" t="n">
+        <x:v>128.2</x:v>
+      </x:c>
     </x:row>
-    <x:row r="8" spans="1:520">
+    <x:row r="8" spans="1:523">
       <x:c r="A8" s="2" t="s">
-        <x:v>524</x:v>
+        <x:v>527</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>520</x:v>
+        <x:v>523</x:v>
       </x:c>
       <x:c r="C8" s="3" t="n">
         <x:v>36.3</x:v>
@@ -11451,13 +11505,22 @@
       <x:c r="SZ8" s="3" t="n">
         <x:v>123.8</x:v>
       </x:c>
+      <x:c r="TA8" s="3" t="n">
+        <x:v>124.6</x:v>
+      </x:c>
+      <x:c r="TB8" s="3" t="n">
+        <x:v>125.2</x:v>
+      </x:c>
+      <x:c r="TC8" s="3" t="n">
+        <x:v>128</x:v>
+      </x:c>
     </x:row>
-    <x:row r="9" spans="1:520">
+    <x:row r="9" spans="1:523">
       <x:c r="A9" s="2" t="s">
-        <x:v>525</x:v>
+        <x:v>528</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>520</x:v>
+        <x:v>523</x:v>
       </x:c>
       <x:c r="C9" s="3" t="n">
         <x:v>18.1</x:v>
@@ -13013,13 +13076,22 @@
       <x:c r="SZ9" s="3" t="n">
         <x:v>116.4</x:v>
       </x:c>
+      <x:c r="TA9" s="3" t="n">
+        <x:v>116.6</x:v>
+      </x:c>
+      <x:c r="TB9" s="3" t="n">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="TC9" s="3" t="n">
+        <x:v>117.4</x:v>
+      </x:c>
     </x:row>
-    <x:row r="10" spans="1:520">
+    <x:row r="10" spans="1:523">
       <x:c r="A10" s="2" t="s">
-        <x:v>526</x:v>
+        <x:v>529</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>520</x:v>
+        <x:v>523</x:v>
       </x:c>
       <x:c r="C10" s="3" t="n">
         <x:v>21</x:v>
@@ -14575,13 +14647,22 @@
       <x:c r="SZ10" s="3" t="n">
         <x:v>120</x:v>
       </x:c>
+      <x:c r="TA10" s="3" t="n">
+        <x:v>123.9</x:v>
+      </x:c>
+      <x:c r="TB10" s="3" t="n">
+        <x:v>125.5</x:v>
+      </x:c>
+      <x:c r="TC10" s="3" t="n">
+        <x:v>126.3</x:v>
+      </x:c>
     </x:row>
-    <x:row r="11" spans="1:520">
+    <x:row r="11" spans="1:523">
       <x:c r="A11" s="2" t="s">
-        <x:v>527</x:v>
+        <x:v>530</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>520</x:v>
+        <x:v>523</x:v>
       </x:c>
       <x:c r="C11" s="3" t="n">
         <x:v>166.2</x:v>
@@ -16137,13 +16218,22 @@
       <x:c r="SZ11" s="3" t="n">
         <x:v>117.4</x:v>
       </x:c>
+      <x:c r="TA11" s="3" t="n">
+        <x:v>116.6</x:v>
+      </x:c>
+      <x:c r="TB11" s="3" t="n">
+        <x:v>116.7</x:v>
+      </x:c>
+      <x:c r="TC11" s="3" t="n">
+        <x:v>115.8</x:v>
+      </x:c>
     </x:row>
-    <x:row r="12" spans="1:520">
+    <x:row r="12" spans="1:523">
       <x:c r="A12" s="2" t="s">
-        <x:v>528</x:v>
+        <x:v>531</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>520</x:v>
+        <x:v>523</x:v>
       </x:c>
       <x:c r="C12" s="3" t="n">
         <x:v>31.4</x:v>
@@ -17699,13 +17789,22 @@
       <x:c r="SZ12" s="3" t="n">
         <x:v>122.7</x:v>
       </x:c>
+      <x:c r="TA12" s="3" t="n">
+        <x:v>121.9</x:v>
+      </x:c>
+      <x:c r="TB12" s="3" t="n">
+        <x:v>123.4</x:v>
+      </x:c>
+      <x:c r="TC12" s="3" t="n">
+        <x:v>124.6</x:v>
+      </x:c>
     </x:row>
-    <x:row r="13" spans="1:520">
+    <x:row r="13" spans="1:523">
       <x:c r="A13" s="2" t="s">
-        <x:v>529</x:v>
+        <x:v>532</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>520</x:v>
+        <x:v>523</x:v>
       </x:c>
       <x:c r="C13" s="3" t="n">
         <x:v>14.8</x:v>
@@ -19261,13 +19360,22 @@
       <x:c r="SZ13" s="3" t="n">
         <x:v>128.1</x:v>
       </x:c>
+      <x:c r="TA13" s="3" t="n">
+        <x:v>128.1</x:v>
+      </x:c>
+      <x:c r="TB13" s="3" t="n">
+        <x:v>128.1</x:v>
+      </x:c>
+      <x:c r="TC13" s="3" t="n">
+        <x:v>128.1</x:v>
+      </x:c>
     </x:row>
-    <x:row r="14" spans="1:520">
+    <x:row r="14" spans="1:523">
       <x:c r="A14" s="2" t="s">
-        <x:v>530</x:v>
+        <x:v>533</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>520</x:v>
+        <x:v>523</x:v>
       </x:c>
       <x:c r="C14" s="3" t="n">
         <x:v>17.1</x:v>
@@ -20823,13 +20931,22 @@
       <x:c r="SZ14" s="3" t="n">
         <x:v>122.6</x:v>
       </x:c>
+      <x:c r="TA14" s="3" t="n">
+        <x:v>124.2</x:v>
+      </x:c>
+      <x:c r="TB14" s="3" t="n">
+        <x:v>125.2</x:v>
+      </x:c>
+      <x:c r="TC14" s="3" t="n">
+        <x:v>126.6</x:v>
+      </x:c>
     </x:row>
-    <x:row r="15" spans="1:520">
+    <x:row r="15" spans="1:523">
       <x:c r="A15" s="2" t="s">
-        <x:v>531</x:v>
+        <x:v>534</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>520</x:v>
+        <x:v>523</x:v>
       </x:c>
       <x:c r="C15" s="3" t="n">
         <x:v>20.4</x:v>
@@ -22385,151 +22502,160 @@
       <x:c r="SZ15" s="3" t="n">
         <x:v>115.8</x:v>
       </x:c>
+      <x:c r="TA15" s="3" t="n">
+        <x:v>115.6</x:v>
+      </x:c>
+      <x:c r="TB15" s="3" t="n">
+        <x:v>116.4</x:v>
+      </x:c>
+      <x:c r="TC15" s="3" t="n">
+        <x:v>116.5</x:v>
+      </x:c>
     </x:row>
-    <x:row r="17" spans="1:520">
+    <x:row r="17" spans="1:523">
       <x:c r="A17" s="4" t="s">
-        <x:v>532</x:v>
+        <x:v>535</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:520">
+    <x:row r="18" spans="1:523">
       <x:c r="A18" s="4" t="s">
-        <x:v>533</x:v>
+        <x:v>536</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:520">
+    <x:row r="20" spans="1:523">
       <x:c r="A20" s="0" t="s">
-        <x:v>534</x:v>
+        <x:v>537</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:520">
+    <x:row r="21" spans="1:523">
       <x:c r="A21" s="0" t="s">
-        <x:v>535</x:v>
+        <x:v>538</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:520">
+    <x:row r="22" spans="1:523">
       <x:c r="A22" s="0" t="s">
-        <x:v>536</x:v>
+        <x:v>539</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:520">
+    <x:row r="24" spans="1:523">
       <x:c r="A24" s="0" t="s">
-        <x:v>537</x:v>
+        <x:v>540</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:520">
+    <x:row r="25" spans="1:523">
       <x:c r="A25" s="0" t="s">
+        <x:v>541</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:523">
+      <x:c r="A27" s="0" t="s">
+        <x:v>542</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:523">
+      <x:c r="A28" s="0" t="s">
         <x:v>538</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:520">
-      <x:c r="A27" s="0" t="s">
-        <x:v>539</x:v>
+    <x:row r="29" spans="1:523">
+      <x:c r="A29" s="0" t="s">
+        <x:v>543</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:520">
-      <x:c r="A28" s="0" t="s">
-        <x:v>535</x:v>
+    <x:row r="30" spans="1:523">
+      <x:c r="A30" s="0" t="s">
+        <x:v>544</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:520">
-      <x:c r="A29" s="0" t="s">
-        <x:v>540</x:v>
+    <x:row r="31" spans="1:523">
+      <x:c r="A31" s="0" t="s">
+        <x:v>545</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:520">
-      <x:c r="A30" s="0" t="s">
-        <x:v>541</x:v>
+    <x:row r="35" spans="1:523">
+      <x:c r="A35" s="0" t="s">
+        <x:v>546</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:520">
-      <x:c r="A31" s="0" t="s">
-        <x:v>542</x:v>
+    <x:row r="37" spans="1:523">
+      <x:c r="A37" s="0" t="s">
+        <x:v>547</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:520">
-      <x:c r="A35" s="0" t="s">
-        <x:v>543</x:v>
+    <x:row r="38" spans="1:523">
+      <x:c r="A38" s="0" t="s">
+        <x:v>538</x:v>
       </x:c>
     </x:row>
-    <x:row r="37" spans="1:520">
-      <x:c r="A37" s="0" t="s">
-        <x:v>544</x:v>
+    <x:row r="39" spans="1:523">
+      <x:c r="A39" s="0" t="s">
+        <x:v>548</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:520">
-      <x:c r="A38" s="0" t="s">
-        <x:v>535</x:v>
+    <x:row r="40" spans="1:523">
+      <x:c r="A40" s="0" t="s">
+        <x:v>549</x:v>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:520">
-      <x:c r="A39" s="0" t="s">
-        <x:v>545</x:v>
+    <x:row r="41" spans="1:523">
+      <x:c r="A41" s="0" t="s">
+        <x:v>538</x:v>
       </x:c>
     </x:row>
-    <x:row r="40" spans="1:520">
-      <x:c r="A40" s="0" t="s">
-        <x:v>546</x:v>
+    <x:row r="42" spans="1:523">
+      <x:c r="A42" s="0" t="s">
+        <x:v>550</x:v>
       </x:c>
     </x:row>
-    <x:row r="41" spans="1:520">
-      <x:c r="A41" s="0" t="s">
-        <x:v>535</x:v>
+    <x:row r="44" spans="1:523">
+      <x:c r="A44" s="0" t="s">
+        <x:v>551</x:v>
       </x:c>
     </x:row>
-    <x:row r="42" spans="1:520">
-      <x:c r="A42" s="0" t="s">
-        <x:v>547</x:v>
+    <x:row r="45" spans="1:523">
+      <x:c r="A45" s="0" t="s">
+        <x:v>523</x:v>
       </x:c>
     </x:row>
-    <x:row r="44" spans="1:520">
-      <x:c r="A44" s="0" t="s">
-        <x:v>548</x:v>
+    <x:row r="46" spans="1:523">
+      <x:c r="A46" s="0" t="s">
+        <x:v>552</x:v>
       </x:c>
     </x:row>
-    <x:row r="45" spans="1:520">
-      <x:c r="A45" s="0" t="s">
-        <x:v>520</x:v>
+    <x:row r="48" spans="1:523">
+      <x:c r="A48" s="0" t="s">
+        <x:v>538</x:v>
       </x:c>
     </x:row>
-    <x:row r="46" spans="1:520">
-      <x:c r="A46" s="0" t="s">
-        <x:v>549</x:v>
+    <x:row r="49" spans="1:523">
+      <x:c r="A49" s="0" t="s">
+        <x:v>553</x:v>
       </x:c>
     </x:row>
-    <x:row r="48" spans="1:520">
-      <x:c r="A48" s="0" t="s">
-        <x:v>535</x:v>
+    <x:row r="55" spans="1:523">
+      <x:c r="A55" s="0" t="s">
+        <x:v>554</x:v>
       </x:c>
     </x:row>
-    <x:row r="49" spans="1:520">
-      <x:c r="A49" s="0" t="s">
-        <x:v>550</x:v>
+    <x:row r="56" spans="1:523">
+      <x:c r="A56" s="0" t="s">
+        <x:v>555</x:v>
       </x:c>
     </x:row>
-    <x:row r="55" spans="1:520">
-      <x:c r="A55" s="0" t="s">
-        <x:v>551</x:v>
+    <x:row r="58" spans="1:523">
+      <x:c r="A58" s="0" t="s">
+        <x:v>556</x:v>
       </x:c>
     </x:row>
-    <x:row r="56" spans="1:520">
-      <x:c r="A56" s="0" t="s">
-        <x:v>552</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="58" spans="1:520">
-      <x:c r="A58" s="0" t="s">
-        <x:v>553</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="59" spans="1:520">
+    <x:row r="59" spans="1:523">
       <x:c r="A59" s="0" t="s">
-        <x:v>554</x:v>
+        <x:v>557</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="2">
-    <x:mergeCell ref="A17:SZ17"/>
-    <x:mergeCell ref="A18:SZ18"/>
+    <x:mergeCell ref="A17:TC17"/>
+    <x:mergeCell ref="A18:TC18"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
